--- a/research/Monte_carlo/output/peak_1_st_dev.xlsx
+++ b/research/Monte_carlo/output/peak_1_st_dev.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>pipe_length</t>
+          <t>length_pipe</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00757610980722151</v>
+        <v>0.007549867130840628</v>
       </c>
       <c r="C2" t="n">
-        <v>1.303559754199135</v>
+        <v>1.299046696460312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8564387588241222</v>
+        <v>0.8534736798886241</v>
       </c>
       <c r="E2" t="n">
-        <v>1.472183777234376</v>
+        <v>1.472183622241831</v>
       </c>
       <c r="F2" t="n">
-        <v>-12.2439587466736</v>
+        <v>-12.24395991558717</v>
       </c>
       <c r="G2" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H2" t="n">
         <v>6.90979573</v>
@@ -579,7 +579,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L2" t="n">
         <v>0.25</v>
@@ -594,10 +594,10 @@
         <v>1.64761</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3917009737607941</v>
+        <v>-0.3917021426743598</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1039202515226899</v>
+        <v>-0.1039204065152347</v>
       </c>
       <c r="R2" t="n">
         <v>0.784077209735583</v>
@@ -621,11 +621,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pipe_length</t>
+          <t>length_pipe</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.519930638729403e-05</v>
+        <v>3.519930706972955e-05</v>
       </c>
       <c r="C3" t="n">
         <v>0.006059585534500237</v>
@@ -640,10 +640,10 @@
         <v>-12.2442948083055</v>
       </c>
       <c r="G3" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H3" t="n">
-        <v>16.9528416132724</v>
+        <v>16.95283206967629</v>
       </c>
       <c r="I3" t="n">
         <v>0.5</v>
@@ -652,7 +652,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L3" t="n">
         <v>0.25</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.519930638729402e-05</v>
+        <v>3.519930706972955e-05</v>
       </c>
       <c r="C4" t="n">
         <v>0.006059585534500237</v>
@@ -713,7 +713,7 @@
         <v>-12.2442948083055</v>
       </c>
       <c r="G4" t="n">
-        <v>2.525908391130471</v>
+        <v>3.174724336146332</v>
       </c>
       <c r="H4" t="n">
         <v>6.90979573</v>
@@ -725,7 +725,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L4" t="n">
         <v>0.25</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.519930638729403e-05</v>
+        <v>3.519930706972955e-05</v>
       </c>
       <c r="C5" t="n">
         <v>0.006059585534500237</v>
@@ -786,7 +786,7 @@
         <v>-12.2442948083055</v>
       </c>
       <c r="G5" t="n">
-        <v>4.22547686839577</v>
+        <v>6.90979573</v>
       </c>
       <c r="H5" t="n">
         <v>6.90979573</v>
@@ -795,10 +795,10 @@
         <v>0.5</v>
       </c>
       <c r="J5" t="n">
-        <v>7.45095373679154</v>
+        <v>7.281418596835137</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L5" t="n">
         <v>0.25</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.04254710380356e-05</v>
+        <v>3.042547539758451e-05</v>
       </c>
       <c r="C6" t="n">
         <v>0.006059585534500237</v>
@@ -859,7 +859,7 @@
         <v>-12.2442948083055</v>
       </c>
       <c r="G6" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H6" t="n">
         <v>6.90979573</v>
@@ -871,7 +871,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02267529129472576</v>
+        <v>0.02267528804567081</v>
       </c>
       <c r="L6" t="n">
         <v>0.25</v>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.519930638729403e-05</v>
+        <v>3.519930706972955e-05</v>
       </c>
       <c r="C7" t="n">
         <v>0.006059585534500237</v>
@@ -932,7 +932,7 @@
         <v>-12.2442948083055</v>
       </c>
       <c r="G7" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H7" t="n">
         <v>6.90979573</v>
@@ -944,7 +944,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L7" t="n">
         <v>0.3984146546747397</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.679725758615168e-05</v>
+        <v>4.679725849344545e-05</v>
       </c>
       <c r="C8" t="n">
         <v>0.006059585534500237</v>
@@ -1005,7 +1005,7 @@
         <v>-12.0485716083055</v>
       </c>
       <c r="G8" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H8" t="n">
         <v>6.90979573</v>
@@ -1017,7 +1017,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L8" t="n">
         <v>0.25</v>
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.259791581301745e-05</v>
+        <v>4.25979166388954e-05</v>
       </c>
       <c r="C9" t="n">
         <v>0.006059585534500237</v>
@@ -1078,7 +1078,7 @@
         <v>-12.2442948083055</v>
       </c>
       <c r="G9" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H9" t="n">
         <v>6.90979573</v>
@@ -1090,7 +1090,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L9" t="n">
         <v>0.25</v>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.329065588538825e-05</v>
+        <v>3.329065653081932e-05</v>
       </c>
       <c r="C10" t="n">
         <v>0.006059585534500237</v>
@@ -1151,7 +1151,7 @@
         <v>-12.28260787992353</v>
       </c>
       <c r="G10" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H10" t="n">
         <v>6.90979573</v>
@@ -1163,7 +1163,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L10" t="n">
         <v>0.25</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.310281113410568e-05</v>
+        <v>3.310281177589487e-05</v>
       </c>
       <c r="C11" t="n">
         <v>0.006059585534500237</v>
@@ -1224,7 +1224,7 @@
         <v>-12.2442948083055</v>
       </c>
       <c r="G11" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H11" t="n">
         <v>6.90979573</v>
@@ -1236,7 +1236,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L11" t="n">
         <v>0.25</v>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.068538402512455e-05</v>
+        <v>3.068538462004525e-05</v>
       </c>
       <c r="C12" t="n">
         <v>0.006059585534500237</v>
@@ -1297,7 +1297,7 @@
         <v>-12.33861083714829</v>
       </c>
       <c r="G12" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H12" t="n">
         <v>6.90979573</v>
@@ -1309,7 +1309,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L12" t="n">
         <v>0.25</v>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.300896119570625e-05</v>
+        <v>3.300896183567589e-05</v>
       </c>
       <c r="C13" t="n">
         <v>0.006059585534500237</v>
@@ -1370,7 +1370,7 @@
         <v>-12.2442948083055</v>
       </c>
       <c r="G13" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H13" t="n">
         <v>6.90979573</v>
@@ -1382,7 +1382,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L13" t="n">
         <v>0.25</v>
